--- a/Mongo Connections/LargeDatasetTest.xlsx
+++ b/Mongo Connections/LargeDatasetTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarthak.sonagara/Desktop/FINAL PROJECT/Mongo Connections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B7946-4AD3-294D-84AE-093678AF9007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21846CF3-6E93-2E47-AD23-DEBE1877D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{1E78BBA4-E8C3-294A-9825-7D680DF944E4}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
